--- a/backend/src/tmp/ExcelCajaEstimacion.xlsx
+++ b/backend/src/tmp/ExcelCajaEstimacion.xlsx
@@ -46,13 +46,13 @@
     <t>Estimacion (*)</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>xd</t>
-  </si>
-  <si>
-    <t>Hola</t>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>Lista Negra</t>
+  </si>
+  <si>
+    <t>Cabeza</t>
   </si>
   <si>
     <t>Total Estimaciones</t>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>12500</v>
+        <v>50000</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4488000</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>4500500</v>
+        <v>50000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>8976</v>
+        <v>37.3</v>
       </c>
       <c r="C9">
-        <v>8976</v>
+        <v>37.3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>37.3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>8952</v>
       </c>
       <c r="C10">
-        <v>500</v>
+        <v>8952</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -611,16 +611,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="C11">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="D11">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="E11">
-        <v>2800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>12276</v>
+        <v>10189.3</v>
       </c>
       <c r="C12" s="1">
-        <v>12276</v>
+        <v>10189.3</v>
       </c>
       <c r="D12" s="1">
-        <v>2800</v>
+        <v>1237.3</v>
       </c>
       <c r="E12" s="1">
-        <v>2800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,16 +645,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>4488224</v>
+        <v>39810.7</v>
       </c>
       <c r="C13" s="1">
-        <v>-12276</v>
+        <v>-10189.3</v>
       </c>
       <c r="D13" s="1">
-        <v>-2800</v>
+        <v>-1237.3</v>
       </c>
       <c r="E13" s="1">
-        <v>-2800</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/ExcelCajaEstimacion.xlsx
+++ b/backend/src/tmp/ExcelCajaEstimacion.xlsx
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4488000</v>
+        <v>4476000</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>4500500</v>
+        <v>4488500</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -577,10 +577,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>8976</v>
+        <v>8952</v>
       </c>
       <c r="C9">
-        <v>8976</v>
+        <v>8952</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>12276</v>
+        <v>12252</v>
       </c>
       <c r="C12" s="1">
-        <v>12276</v>
+        <v>12252</v>
       </c>
       <c r="D12" s="1">
         <v>2800</v>
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>4488224</v>
+        <v>4476248</v>
       </c>
       <c r="C13" s="1">
-        <v>-12276</v>
+        <v>-12252</v>
       </c>
       <c r="D13" s="1">
         <v>-2800</v>
